--- a/Data/Cell Data Descriptions.xlsx
+++ b/Data/Cell Data Descriptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Cell2Cell_Data_Documentation" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1135,6 +1153,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:D88" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A4:D88"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Position"/>
+    <tableColumn id="2" name="Variable Name"/>
+    <tableColumn id="3" name=" Variable Description"/>
+    <tableColumn id="4" name="Notes:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,18 +1457,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="173.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="173.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1477,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1485,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1461,7 +1493,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1486,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1497,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1511,7 +1543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1522,7 +1554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1536,7 +1568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1547,7 +1579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1558,7 +1590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1569,7 +1601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1580,7 +1612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1591,7 +1623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1602,7 +1634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1616,7 +1648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1627,7 +1659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1638,7 +1670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1649,7 +1681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1660,7 +1692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1671,7 +1703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1682,7 +1714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1693,7 +1725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1704,7 +1736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1715,7 +1747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1729,7 +1761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1743,7 +1775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1754,7 +1786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1768,7 +1800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1779,7 +1811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1790,7 +1822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1801,7 +1833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1812,7 +1844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1823,7 +1855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1834,7 +1866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1845,7 +1877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1856,7 +1888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1867,7 +1899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1878,7 +1910,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1889,7 +1921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1900,7 +1932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1911,7 +1943,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1922,7 +1954,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1933,7 +1965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1947,7 +1979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -1961,7 +1993,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -1972,7 +2004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -1983,7 +2015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -1997,7 +2029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -2008,7 +2040,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -2019,7 +2051,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -2030,7 +2062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -2041,7 +2073,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -2052,7 +2084,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -2063,7 +2095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -2074,7 +2106,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -2085,7 +2117,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -2096,7 +2128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -2107,7 +2139,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -2118,7 +2150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -2132,7 +2164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -2143,7 +2175,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -2154,7 +2186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -2165,7 +2197,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -2176,7 +2208,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -2187,7 +2219,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -2201,7 +2233,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -2212,7 +2244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -2223,7 +2255,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -2234,7 +2266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -2245,7 +2277,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -2256,7 +2288,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -2267,7 +2299,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -2278,7 +2310,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -2289,7 +2321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -2300,7 +2332,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -2311,7 +2343,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -2322,7 +2354,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -2333,7 +2365,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -2344,7 +2376,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -2355,7 +2387,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
@@ -2366,7 +2398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -2377,7 +2409,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -2388,7 +2420,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -2399,7 +2431,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -2413,7 +2445,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -2427,7 +2459,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -2448,25 +2480,13 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010019267F6D1A260A4394C18F5AF72445EA" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6a723735a0ade9a92961b83aee31dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e345bd7673956a623930e5662e321f3a">
     <xsd:element name="properties">
@@ -2580,17 +2600,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C446904-746C-451A-933C-CE3624A3E998}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21D2730-6604-4AED-A1D9-71AED808489B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2604,17 +2640,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21D2730-6604-4AED-A1D9-71AED808489B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C446904-746C-451A-933C-CE3624A3E998}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>